--- a/Unity/Assets/Config/Excel/BuffClientConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffClientConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -50,12 +50,18 @@
     <t>TickFxBindPoint</t>
   </si>
   <si>
+    <t>TickFxTime</t>
+  </si>
+  <si>
     <t>RemoveFx</t>
   </si>
   <si>
     <t>RemoveFxBindPoint</t>
   </si>
   <si>
+    <t>RemoveFxTime</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -95,10 +101,16 @@
     <t>bufftick特效绑点</t>
   </si>
   <si>
+    <t>bufftick特效时长</t>
+  </si>
+  <si>
     <t>buff移除特效</t>
   </si>
   <si>
     <t>buff移除特效绑点</t>
+  </si>
+  <si>
+    <t>buff移除特效时长</t>
   </si>
   <si>
     <t>Assets/Bundles/Fx/fx1.prefab</t>
@@ -1149,12 +1161,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E26" sqref="E26"/>
+      <selection pane="topRight" activeCell="K7" sqref="K7:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1163,12 +1175,13 @@
     <col min="2" max="2" width="30.25" style="7" customWidth="1"/>
     <col min="3" max="4" width="31.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="31.25" style="7" customWidth="1"/>
-    <col min="6" max="8" width="20.75" style="8" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="6" max="9" width="20.75" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="8" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1196,39 +1209,51 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:5">
       <c r="A3" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11"/>
       <c r="E3" s="11"/>
@@ -1242,193 +1267,247 @@
     </row>
     <row r="5" s="5" customFormat="1" spans="1:5">
       <c r="A5" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="14">
         <v>40001</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7">
         <v>3000</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="14">
         <v>40002</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" s="7">
         <v>3000</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:11">
       <c r="A9" s="14"/>
       <c r="B9" s="14">
         <v>40003</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E9" s="7">
         <v>3000</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="14">
         <v>40004</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E10" s="7">
         <v>3000</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>29</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="14">
         <v>40005</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7">
         <v>3000</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="14">
         <v>40006</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12" s="7">
         <v>3000</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="14">
         <v>40007</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13" s="7">
         <v>3000</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="14">
         <v>40008</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" s="7">
         <v>3000</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="7">
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="2:2">

--- a/Unity/Assets/Config/Excel/BuffClientConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffClientConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -35,6 +35,15 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>##Desc</t>
+  </si>
+  <si>
     <t>AddFx</t>
   </si>
   <si>
@@ -68,6 +77,9 @@
     <t>int#ref=BuffConfigCategory</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>string?</t>
   </si>
   <si>
@@ -80,12 +92,21 @@
     <t>##group</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>buff名称</t>
+  </si>
+  <si>
+    <t>buff描述</t>
+  </si>
+  <si>
     <t>buff添加特效</t>
   </si>
   <si>
@@ -128,10 +149,22 @@
     <t>Assets/Bundles/Fx/fx4.prefab</t>
   </si>
   <si>
-    <t>Assets/Bundles/Fx/fx5.prefab</t>
+    <t>真言术：痛</t>
+  </si>
+  <si>
+    <t>眩晕</t>
   </si>
   <si>
     <t>Assets/Bundles/Fx/fx8.prefab</t>
+  </si>
+  <si>
+    <t>圣盾术</t>
+  </si>
+  <si>
+    <t>争分夺秒</t>
+  </si>
+  <si>
+    <t>真言术：盾</t>
   </si>
 </sst>
 </file>
@@ -1161,37 +1194,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K7" sqref="K7:K14"/>
+      <selection pane="topRight" activeCell="N14" sqref="N17 N14:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="7" customWidth="1"/>
-    <col min="3" max="4" width="31.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="7" customWidth="1"/>
-    <col min="6" max="9" width="20.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="8" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="8"/>
+    <col min="3" max="3" width="18.125" style="7" customWidth="1"/>
+    <col min="4" max="5" width="21.75" style="7" customWidth="1"/>
+    <col min="6" max="7" width="31.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="31.25" style="7" customWidth="1"/>
+    <col min="9" max="12" width="20.75" style="8" customWidth="1"/>
+    <col min="13" max="13" width="21.5" style="8" customWidth="1"/>
+    <col min="14" max="14" width="18.25" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -1203,7 +1238,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1215,366 +1250,603 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:14">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10"/>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:8">
       <c r="A3" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="11"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:5">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:8">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:5">
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:14">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="14">
         <v>40001</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3000</v>
+      <c r="C7" s="14" t="str">
+        <f>_xlfn.CONCAT("buffname_",B7)</f>
+        <v>buffname_40001</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f>_xlfn.CONCAT("buffdesc_",B7)</f>
+        <v>buffdesc_40001</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>3000</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="M7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="14">
         <v>40002</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3000</v>
+      <c r="C8" s="14" t="str">
+        <f t="shared" ref="C8:C17" si="0">_xlfn.CONCAT("buffname_",B8)</f>
+        <v>buffname_40002</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="shared" ref="D8:D17" si="1">_xlfn.CONCAT("buffdesc_",B8)</f>
+        <v>buffdesc_40002</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>3000</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:11">
+      <c r="M8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:14">
       <c r="A9" s="14"/>
       <c r="B9" s="14">
         <v>40003</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3000</v>
+      <c r="C9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>buffname_40003</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>buffdesc_40003</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7">
         <v>3000</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K9" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="M9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="14">
         <v>40004</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3000</v>
+      <c r="C10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>buffname_40004</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>buffdesc_40004</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>3000</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="M10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="14">
         <v>40005</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3000</v>
+      <c r="C11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>buffname_40005</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>buffdesc_40005</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>3000</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="M11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="14">
         <v>40006</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="7">
-        <v>3000</v>
-      </c>
+      <c r="C12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>buffname_40006</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>buffdesc_40006</v>
+      </c>
+      <c r="E12" s="14"/>
       <c r="G12" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
         <v>3000</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K12" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="M12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="14">
         <v>40007</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="7">
-        <v>3000</v>
+      <c r="C13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>buffname_40007</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>buffdesc_40007</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>3000</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="M13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="14">
         <v>40008</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="7">
-        <v>3000</v>
+      <c r="C14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>buffname_40008</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>buffdesc_40008</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
         <v>3000</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K14" s="7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="14"/>
+      <c r="M14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="14">
+        <v>40009</v>
+      </c>
+      <c r="C15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>buffname_40009</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>buffdesc_40009</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3000</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="14">
+        <v>40010</v>
+      </c>
+      <c r="C16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>buffname_40010</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>buffdesc_40010</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="7">
+        <v>3000</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="14">
+        <v>40011</v>
+      </c>
+      <c r="C17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>buffname_40011</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>buffdesc_40011</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="7">
+        <v>3000</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3000</v>
+      </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="14"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:3">
       <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" s="14"/>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="2:2">
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
